--- a/체험점포_마포_신사업창업사관학교/근무표/신사업창업사관학교_근무표.xlsx
+++ b/체험점포_마포_신사업창업사관학교/근무표/신사업창업사관학교_근무표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4월 일정표" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,7 +1901,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2456,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2716,8 +2719,8 @@
       <c r="C16" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="136" t="s">
-        <v>31</v>
+      <c r="D16" s="141" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="68" t="s">
         <v>33</v>
